--- a/NFL Excel Sheets/Offense_KICKING.xlsx
+++ b/NFL Excel Sheets/Offense_KICKING.xlsx
@@ -63891,12 +63891,12 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>2,533</t>
+          <t>2,927</t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
@@ -63906,27 +63906,27 @@
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>74.4</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>29.8</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
@@ -63959,17 +63959,17 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>3,621</t>
+          <t>3,874</t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
@@ -63979,27 +63979,27 @@
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
@@ -64009,7 +64009,7 @@
       </c>
       <c r="M872" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N872" t="inlineStr">
@@ -64037,12 +64037,12 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>3,035</t>
+          <t>3,353</t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
@@ -64052,27 +64052,27 @@
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>64.5</t>
         </is>
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>27.7</t>
+          <t>26.2</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
@@ -64100,27 +64100,27 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t>3,289</t>
+          <t>3,934</t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -64130,22 +64130,22 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>19.7</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
@@ -64183,12 +64183,12 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>3,092</t>
+          <t>3,543</t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
@@ -64203,22 +64203,22 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>23.7</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
@@ -64246,52 +64246,52 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>3,222</t>
+          <t>3,538</t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
@@ -64301,7 +64301,7 @@
       </c>
       <c r="M876" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N876" t="inlineStr">
@@ -64319,52 +64319,52 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>3,985</t>
+        </is>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>64.3</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>87.1</t>
+        </is>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C877" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="D877" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E877" t="inlineStr">
-        <is>
-          <t>2,691</t>
-        </is>
-      </c>
-      <c r="F877" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G877" t="inlineStr">
-        <is>
-          <t>64.1</t>
-        </is>
-      </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I877" t="inlineStr">
-        <is>
-          <t>66.7</t>
-        </is>
-      </c>
-      <c r="J877" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>23.6</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
@@ -64374,7 +64374,7 @@
       </c>
       <c r="M877" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N877" t="inlineStr">
@@ -64397,52 +64397,52 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>3,008</t>
+          <t>3,402</t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>64.2</t>
         </is>
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>79.2</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M878" t="inlineStr">
@@ -64465,22 +64465,22 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Oakland Raiders</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t>2,752</t>
+          <t>3,074</t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
@@ -64495,27 +64495,27 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M879" t="inlineStr">
@@ -64543,22 +64543,22 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>3,257</t>
+          <t>3,705</t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -64568,22 +64568,22 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>90.2</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>27.5</t>
+          <t>18.5</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
@@ -64593,7 +64593,7 @@
       </c>
       <c r="M880" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N880" t="inlineStr">
@@ -64611,22 +64611,22 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Oakland Raiders</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t>2,426</t>
+          <t>3,193</t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
@@ -64636,32 +64636,32 @@
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M881" t="inlineStr">
@@ -64689,22 +64689,22 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>59</t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>2,996</t>
+          <t>3,759</t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
@@ -64714,27 +64714,27 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>24.7</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M882" t="inlineStr">
@@ -64762,17 +64762,17 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t>3,119</t>
+          <t>3,187</t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
@@ -64787,22 +64787,22 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
@@ -64812,7 +64812,7 @@
       </c>
       <c r="M883" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N883" t="inlineStr">
@@ -64830,22 +64830,22 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t>2,797</t>
+          <t>3,883</t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
@@ -64855,27 +64855,27 @@
       </c>
       <c r="G884" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>88.6</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
@@ -64885,7 +64885,7 @@
       </c>
       <c r="M884" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N884" t="inlineStr">
@@ -64908,57 +64908,57 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>3,356</t>
+          <t>3,558</t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>26.8</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M885" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N885" t="inlineStr">
@@ -64976,22 +64976,22 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t>2,278</t>
+          <t>4,377</t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
@@ -65001,37 +65001,37 @@
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>18.3</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M886" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N886" t="inlineStr">
@@ -65049,22 +65049,22 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t>2,848</t>
+          <t>3,168</t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
@@ -65074,27 +65074,27 @@
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>22.9</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
@@ -65104,7 +65104,7 @@
       </c>
       <c r="M887" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N887" t="inlineStr">
@@ -65122,22 +65122,22 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t>2,722</t>
+          <t>2,977</t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
@@ -65152,27 +65152,27 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M888" t="inlineStr">
@@ -65200,47 +65200,47 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>2,972</t>
+          <t>3,595</t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>25.5</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
@@ -65250,7 +65250,7 @@
       </c>
       <c r="M889" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N889" t="inlineStr">
@@ -65273,17 +65273,17 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Washington Redskins</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>1,831</t>
+          <t>3,466</t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
@@ -65293,27 +65293,27 @@
       </c>
       <c r="G890" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>74.5</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>25.4</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
@@ -65346,17 +65346,17 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>3,145</t>
+          <t>4,271</t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
@@ -65366,27 +65366,27 @@
       </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>72.1</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>25.7</t>
+          <t>19.4</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
@@ -65419,22 +65419,22 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>3,451</t>
+          <t>2,949</t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -65444,22 +65444,22 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
@@ -65492,47 +65492,47 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>2,305</t>
+          <t>3,168</t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>22.4</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
@@ -65542,7 +65542,7 @@
       </c>
       <c r="M893" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N893" t="inlineStr">
@@ -65560,52 +65560,52 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>2,617</t>
+          <t>2,726</t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
@@ -65615,7 +65615,7 @@
       </c>
       <c r="M894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N894" t="inlineStr">
@@ -65643,12 +65643,12 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>2,660</t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
@@ -65658,27 +65658,27 @@
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>62.2</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>22.1</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
@@ -65711,7 +65711,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
@@ -65721,7 +65721,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>2,408</t>
+          <t>2,404</t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
@@ -65731,27 +65731,27 @@
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>71.8</t>
+          <t>74.4</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
@@ -65761,7 +65761,7 @@
       </c>
       <c r="M896" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N896" t="inlineStr">
@@ -65784,47 +65784,47 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>1,957</t>
+          <t>2,389</t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>61.3</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
@@ -65839,7 +65839,7 @@
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O897" t="n">
@@ -65857,7 +65857,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Washington Redskins</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
@@ -65867,52 +65867,52 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>2,006</t>
+          <t>2,021</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>61.2</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>69.7</t>
+        </is>
+      </c>
+      <c r="J898" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M898" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G898" t="inlineStr">
-        <is>
-          <t>60.8</t>
-        </is>
-      </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I898" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
-      <c r="J898" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>25.9</t>
-        </is>
-      </c>
-      <c r="L898" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O898" t="n">
@@ -65930,17 +65930,17 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>1,638</t>
+          <t>2,380</t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
@@ -65950,7 +65950,7 @@
       </c>
       <c r="G899" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="H899" t="inlineStr">
@@ -65960,22 +65960,22 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M899" t="inlineStr">
@@ -66003,62 +66003,62 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>2,176</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>60.4</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E900" t="inlineStr">
-        <is>
-          <t>1,551</t>
-        </is>
-      </c>
-      <c r="F900" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>59.7</t>
-        </is>
-      </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O900" t="n">
@@ -66076,27 +66076,27 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>2,724</t>
+          <t>3,051</t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="H901" t="inlineStr">
@@ -66106,17 +66106,17 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
@@ -66149,47 +66149,47 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>2,139</t>
+          <t>2,915</t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
